--- a/room_list.xlsx
+++ b/room_list.xlsx
@@ -525,27 +525,27 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">KAPOMBE </t>
+          <t>MASILI</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MIREILLE</t>
+          <t xml:space="preserve"> ANGELO</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Waiter</t>
+          <t>1st Hotel Engineer</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>Doble F</t>
+          <t>Single M</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -575,27 +575,27 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">KAPOMBE </t>
+          <t>MASILI</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MIREILLE</t>
+          <t xml:space="preserve"> ANGELO</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>Waiter</t>
+          <t>1st Hotel Engineer</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -610,12 +610,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>Doble F</t>
+          <t>Single M</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -625,12 +625,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>DIAZ CASTILLO</t>
+          <t>AGUSTIN</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MANUEL</t>
+          <t xml:space="preserve"> GARRY</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -640,12 +640,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>Sommelier</t>
+          <t>2nd Cook</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -675,12 +675,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>DIAZ CASTILLO</t>
+          <t>NYARIKI</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MANUEL</t>
+          <t xml:space="preserve"> MARTIN</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>Sommelier</t>
+          <t>2nd Cook</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -705,19 +705,11 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -725,12 +717,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>HANSEN-LINDSTROM</t>
+          <t>NYARIKI</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ULF-PETER MAGNUS</t>
+          <t xml:space="preserve"> MARTIN</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -740,12 +732,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>Captain</t>
+          <t>2nd Cook</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -760,7 +752,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>Single M</t>
+          <t>Doble M</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -775,42 +767,42 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>SCHMIDT</t>
+          <t>AGUSTIN</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRANZISKA</t>
+          <t xml:space="preserve"> GARRY</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>2nd Cook</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>Single F</t>
+          <t>Doble M</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -825,49 +817,35 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>SCHMIDT</t>
+          <t>SULZHUK</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRANZISKA</t>
+          <t xml:space="preserve"> IVAN</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>Doctor</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>Single F</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>2nd Engineer</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H12" s="2" t="inlineStr"/>
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -875,12 +853,12 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>AHMED</t>
+          <t>CASTILLON</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALTAF</t>
+          <t xml:space="preserve"> JOLLY PANTORILLA</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -890,17 +868,17 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Senior Security Guard</t>
+          <t>Able Seaman</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -910,10 +888,14 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -921,12 +903,12 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>AHMED</t>
+          <t>LAURENTE</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALTAF</t>
+          <t xml:space="preserve"> REYMARK</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -936,32 +918,32 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Senior Security Guard</t>
+          <t>Able Seaman</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>Single M</t>
+          <t>Doble M</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -971,12 +953,12 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>AJIMON</t>
+          <t>MACAPOBRE</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ANANTHAKRISHNAN</t>
+          <t xml:space="preserve"> HOMBRE</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -986,17 +968,17 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>Suite Attendant</t>
+          <t>Able Seaman</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1006,10 +988,14 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1017,12 +1003,12 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>AJIMON</t>
+          <t>CASTILLON</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ANANTHAKRISHNAN</t>
+          <t xml:space="preserve"> JOLLY PANTORILLA</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1032,12 +1018,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>Suite Attendant</t>
+          <t>Able Seaman</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1057,7 +1043,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -1067,12 +1053,12 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>BISHT</t>
+          <t>LAURENTE</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LALIT</t>
+          <t xml:space="preserve"> REYMARK</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1082,12 +1068,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>Service Assistant</t>
+          <t>Able Seaman</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1097,15 +1083,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1113,12 +1103,12 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>BISHT</t>
+          <t>MACAPOBRE</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LALIT</t>
+          <t xml:space="preserve"> HOMBRE</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1128,12 +1118,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>Service Assistant</t>
+          <t>Able Seaman</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1163,12 +1153,12 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>BOGA</t>
+          <t>ALDAY</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FREADY HOMI</t>
+          <t xml:space="preserve"> JEROME CARANDANG</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1178,34 +1168,20 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>Security Guard</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+          <t>Able Seaman</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1213,12 +1189,12 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>BOGA</t>
+          <t>FELISILDA</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FREADY HOMI</t>
+          <t xml:space="preserve"> DEMETRIO PELIGRO</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1228,34 +1204,20 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>Security Guard</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+          <t>Able Seaman</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1263,27 +1225,27 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>FERNANDES</t>
+          <t>GROMIO</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ROYSTON</t>
+          <t xml:space="preserve"> KIMBERLY PANUGAO</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>Butler</t>
+          <t>Bar Waiter/Waitress</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1298,12 +1260,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>Doble M</t>
+          <t>Doble F</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -1313,27 +1275,27 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>FERNANDES</t>
+          <t>GROMIO</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ROYSTON</t>
+          <t xml:space="preserve"> KIMBERLY PANUGAO</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>Butler</t>
+          <t>Bar Waiter/Waitress</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1348,12 +1310,12 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Doble M</t>
+          <t>Doble F</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -1363,12 +1325,12 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">KALIM </t>
+          <t>ISIDORO</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAZHAR</t>
+          <t xml:space="preserve"> ROVAN</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1378,29 +1340,19 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>Butler</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
+          <t>Bar Waiter/Waitress</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1409,12 +1361,12 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">KALIM </t>
+          <t>OWIYO</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAZHAR</t>
+          <t xml:space="preserve"> ERICK ODONGO</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -1424,22 +1376,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>Butler</t>
+          <t>Bartender</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1449,7 +1401,7 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -1459,12 +1411,12 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>NORONHA</t>
+          <t>ADNYANA</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BONIFACIO JOAO</t>
+          <t xml:space="preserve"> PUTU WIDYA</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -1474,12 +1426,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>Suite Attendant</t>
+          <t>Bartender</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1492,11 +1444,7 @@
           <t>2024-11-15</t>
         </is>
       </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
+      <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1505,12 +1453,12 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>NORONHA</t>
+          <t>ADNYANA</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BONIFACIO JOAO</t>
+          <t xml:space="preserve"> PUTU WIDYA</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -1520,12 +1468,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>Suite Attendant</t>
+          <t>Bartender</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -1545,7 +1493,7 @@
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -1555,12 +1503,12 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>SAHA</t>
+          <t>OWIYO</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SOUVIK</t>
+          <t xml:space="preserve"> ERICK ODONGO</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1570,12 +1518,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>Suite Attendant</t>
+          <t>Bartender</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1585,15 +1533,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1601,12 +1553,12 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>SAHA</t>
+          <t>FERNANDES</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SOUVIK</t>
+          <t xml:space="preserve"> ROYSTON</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
@@ -1621,17 +1573,17 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>Suite Attendant</t>
+          <t>Butler</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1641,7 +1593,7 @@
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
     </row>
@@ -1651,12 +1603,12 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>VELANKOVIL RAJU</t>
+          <t>VILLA</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RENJITH MON</t>
+          <t xml:space="preserve"> ORLANDO</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -1666,17 +1618,17 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>Galley Utility</t>
+          <t>Butler</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1686,10 +1638,14 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1697,12 +1653,12 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>VELANKOVIL RAJU</t>
+          <t>BENTHOTA DEVAGE</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RENJITH MON</t>
+          <t xml:space="preserve"> UDARA MADUSAKA</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
@@ -1712,22 +1668,22 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>Galley Utility</t>
+          <t>Butler</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -1747,12 +1703,12 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>ADNYANA</t>
+          <t>FERNANDES</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PUTU WIDYA</t>
+          <t xml:space="preserve"> ROYSTON</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
@@ -1762,12 +1718,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>Bartender</t>
+          <t>Butler</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -1777,15 +1733,19 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1793,12 +1753,12 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>ADNYANA</t>
+          <t xml:space="preserve">KALIM </t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PUTU WIDYA</t>
+          <t xml:space="preserve"> MAZHAR</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
@@ -1808,12 +1768,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>Bartender</t>
+          <t>Butler</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -1823,19 +1783,11 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1843,12 +1795,12 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>BOCCIA</t>
+          <t xml:space="preserve">KALIM </t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ANTONIO</t>
+          <t xml:space="preserve"> MAZHAR</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
@@ -1858,32 +1810,32 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>Executive Sous Chef</t>
+          <t>Butler</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>Single M</t>
+          <t>Doble M</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
     </row>
@@ -1893,12 +1845,12 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>BOCCIA</t>
+          <t>VILLA</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ANTONIO</t>
+          <t xml:space="preserve"> ORLANDO</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
@@ -1908,12 +1860,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>Executive Sous Chef</t>
+          <t>Butler</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -1928,12 +1880,12 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Single M</t>
+          <t>Doble M</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
     </row>
@@ -1943,12 +1895,12 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>GULINO</t>
+          <t>BENTHOTA DEVAGE</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SIMONE</t>
+          <t xml:space="preserve"> UDARA MADUSAKA</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
@@ -1958,12 +1910,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>Chief Engineer</t>
+          <t>Butler</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -1978,12 +1930,12 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>Single M</t>
+          <t>Doble M</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1993,12 +1945,12 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>MASILI</t>
+          <t>KUMARA</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ANGELO</t>
+          <t xml:space="preserve"> ATHTHANAYAKA SANATH</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
@@ -2008,34 +1960,20 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>1st Hotel Engineer</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Single M</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+          <t>Butler</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2043,12 +1981,12 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>MASILI</t>
+          <t>Emil Maltha</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ANGELO</t>
+          <t>Zhou</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
@@ -2058,22 +1996,22 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1st Hotel Engineer</t>
+          <t>Captain</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-09-22</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2083,7 +2021,7 @@
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -2093,12 +2031,12 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>NYARIKI</t>
+          <t>Emil Maltha</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MARTIN</t>
+          <t>Zhou</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
@@ -2108,30 +2046,34 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>2nd Cook</t>
+          <t>Captain</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-09-22</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J38" s="2" t="inlineStr"/>
+          <t>Single M</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2139,12 +2081,12 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>NYARIKI</t>
+          <t>Emil Maltha</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MARTIN</t>
+          <t>Zhou</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -2154,32 +2096,32 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>2nd Cook</t>
+          <t>Captain</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-09-22</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Doble M</t>
+          <t>Single M</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -2189,12 +2131,12 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>OWIYO</t>
+          <t>HANSEN-LINDSTROM</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ERICK ODONGO</t>
+          <t xml:space="preserve"> ULF-PETER MAGNUS</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
@@ -2204,32 +2146,32 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>Bartender</t>
+          <t>Captain</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Doble M</t>
+          <t>Single M</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -2239,12 +2181,12 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>OWIYO</t>
+          <t>CHARLES</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ERICK ODONGO</t>
+          <t>CHAMPOUX</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -2254,34 +2196,20 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Canadian</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>Bartender</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+          <t>Captain</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2289,12 +2217,12 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>AGUSTIN</t>
+          <t>STEPHEN</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GARRY</t>
+          <t>KAIZER</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -2304,34 +2232,20 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Canadian</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>2nd Cook</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
+          <t>Captain</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2339,12 +2253,12 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>AGUSTIN</t>
+          <t>DOMANIN</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GARRY</t>
+          <t xml:space="preserve"> ANDRIY</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
@@ -2354,34 +2268,20 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>2nd Cook</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
+          <t>Captain</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H43" s="2" t="inlineStr"/>
+      <c r="I43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2389,12 +2289,12 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>AREVALO</t>
+          <t>Feng</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TIMOTEO JR. BARNES</t>
+          <t>lday</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
@@ -2404,34 +2304,20 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>Carpenter</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+          <t>Captain</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2464,12 +2350,12 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
@@ -2479,7 +2365,7 @@
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2489,12 +2375,12 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>BARLAAN</t>
+          <t>AREVALO</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MARLON</t>
+          <t xml:space="preserve"> TIMOTEO JR. BARNES</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
@@ -2509,17 +2395,17 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>Chef De Partie</t>
+          <t>Carpenter</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
@@ -2529,7 +2415,7 @@
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -2564,12 +2450,12 @@
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2579,7 +2465,7 @@
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -2589,12 +2475,12 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>CASTILLON</t>
+          <t>BARLAAN</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOLLY PANTORILLA</t>
+          <t xml:space="preserve"> MARLON</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
@@ -2609,17 +2495,17 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>Able Seaman</t>
+          <t>Chef De Partie</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -2629,7 +2515,7 @@
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -2639,12 +2525,12 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>CASTILLON</t>
+          <t>GULINO</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOLLY PANTORILLA</t>
+          <t xml:space="preserve"> SIMONE</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
@@ -2654,12 +2540,12 @@
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>Able Seaman</t>
+          <t>Chief Engineer</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
@@ -2674,12 +2560,12 @@
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>Doble M</t>
+          <t>Single M</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -2689,49 +2575,35 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>GAY-YA</t>
+          <t>NAULAK</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FELICIANA</t>
+          <t xml:space="preserve"> GINKHUALLIAN</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>Desktop Publisher</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="inlineStr">
-        <is>
-          <t>Doble F</t>
-        </is>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+          <t>Deck Steward</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="inlineStr"/>
+      <c r="J50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2764,12 +2636,12 @@
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
@@ -2779,7 +2651,7 @@
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2661,12 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>GROMIO</t>
+          <t>GAY-YA</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KIMBERLY PANUGAO</t>
+          <t xml:space="preserve"> FELICIANA</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
@@ -2809,17 +2681,17 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>Bar Waiter/Waitress</t>
+          <t>Desktop Publisher</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
@@ -2829,7 +2701,7 @@
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -2839,12 +2711,12 @@
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>GROMIO</t>
+          <t>SCHMIDT</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KIMBERLY PANUGAO</t>
+          <t xml:space="preserve"> FRANZISKA</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
@@ -2854,32 +2726,32 @@
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>Bar Waiter/Waitress</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>Doble F</t>
+          <t>Single F</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>V</t>
         </is>
       </c>
     </row>
@@ -2889,47 +2761,47 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>HULLANA</t>
+          <t>SCHMIDT</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RAYMUND GARRIDO</t>
+          <t xml:space="preserve"> FRANZISKA</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>IT/Communications Officer</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>Single M</t>
+          <t>Single F</t>
         </is>
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -2939,49 +2811,35 @@
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>HULLANA</t>
+          <t>MIREILLE</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RAYMUND GARRIDO</t>
+          <t>PAQUETTE</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Canadian</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>IT/Communications Officer</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="inlineStr">
-        <is>
-          <t>Single M</t>
-        </is>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>Z</t>
-        </is>
-      </c>
+          <t>Enginner</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -2989,12 +2847,12 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>LAURENTE</t>
+          <t>STEPHEN</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REYMARK</t>
+          <t>WHEATCROFT</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
@@ -3004,34 +2862,20 @@
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Canadian</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>Able Seaman</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>AA</t>
-        </is>
-      </c>
+          <t>Enginner</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H56" s="2" t="inlineStr"/>
+      <c r="I56" s="2" t="inlineStr"/>
+      <c r="J56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3039,12 +2883,12 @@
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>LAURENTE</t>
+          <t>BOCCIA</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REYMARK</t>
+          <t xml:space="preserve"> ANTONIO</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
@@ -3054,32 +2898,32 @@
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>Able Seaman</t>
+          <t>Executive Sous Chef</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>Doble M</t>
+          <t>Single M</t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -3089,12 +2933,12 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>MACAPOBRE</t>
+          <t>BOCCIA</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HOMBRE</t>
+          <t xml:space="preserve"> ANTONIO</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
@@ -3104,32 +2948,32 @@
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>Able Seaman</t>
+          <t>Executive Sous Chef</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>Doble M</t>
+          <t>Single M</t>
         </is>
       </c>
       <c r="J58" s="2" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -3139,49 +2983,35 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>MACAPOBRE</t>
+          <t>OOSTHUYSE</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HOMBRE</t>
+          <t xml:space="preserve"> JESSICA KAY</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>Able Seaman</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
-      </c>
+          <t>Expedition Field Staff</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="inlineStr"/>
+      <c r="J59" s="2" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3189,49 +3019,35 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>MAGDADARO</t>
+          <t>LUNDSTROEM</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RAFFY</t>
+          <t xml:space="preserve"> EVA KARIN TERESIA</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>Oiler</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>AC</t>
-        </is>
-      </c>
+          <t>Expedition Field Staff</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr"/>
+      <c r="J60" s="2" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3239,49 +3055,35 @@
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>MAGDADARO</t>
+          <t>MELLUISH</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RAFFY</t>
+          <t xml:space="preserve"> VICTORIA LOUISE</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>Oiler</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>AC</t>
-        </is>
-      </c>
+          <t>Expedition Field Staff</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr"/>
+      <c r="J61" s="2" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3289,12 +3091,12 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>NAVARRETE</t>
+          <t>CHEN</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RUEL</t>
+          <t xml:space="preserve"> QI</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
@@ -3304,34 +3106,20 @@
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>Fitter</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="I62" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
+          <t>Expedition Field Staff</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr"/>
+      <c r="J62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3339,12 +3127,12 @@
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>NAVARRETE</t>
+          <t>GRANT</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RUEL</t>
+          <t xml:space="preserve"> HARRY KEITH</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
@@ -3354,34 +3142,20 @@
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>Fitter</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
+          <t>Expedition Field Staff</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr"/>
+      <c r="J63" s="2" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3389,49 +3163,35 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>NUNEZ</t>
+          <t>BREDENKAMP</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SHELLA GADUGDUG</t>
+          <t xml:space="preserve"> NICHOLAS</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>Junior Nurse</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="inlineStr">
-        <is>
-          <t>Doble F</t>
-        </is>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>AE</t>
-        </is>
-      </c>
+          <t>Expedition Field Staff</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H64" s="2" t="inlineStr"/>
+      <c r="I64" s="2" t="inlineStr"/>
+      <c r="J64" s="2" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3439,49 +3199,35 @@
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>NUNEZ</t>
+          <t>THORP</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SHELLA GADUGDUG</t>
+          <t xml:space="preserve"> MATTHEW</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>Junior Nurse</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="I65" s="2" t="inlineStr">
-        <is>
-          <t>Doble F</t>
-        </is>
-      </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>AE</t>
-        </is>
-      </c>
+          <t>Expedition Field Staff</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H65" s="2" t="inlineStr"/>
+      <c r="I65" s="2" t="inlineStr"/>
+      <c r="J65" s="2" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3489,12 +3235,12 @@
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>ORFANO</t>
+          <t>KWIDINI</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NICANOR PANERGO</t>
+          <t xml:space="preserve"> NKULULEKO</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
@@ -3504,34 +3250,20 @@
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>Provision Man</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="I66" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>AF</t>
-        </is>
-      </c>
+          <t>Expedition Field Staff</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H66" s="2" t="inlineStr"/>
+      <c r="I66" s="2" t="inlineStr"/>
+      <c r="J66" s="2" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3539,12 +3271,12 @@
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>ORFANO</t>
+          <t>PERMANA</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NICANOR PANERGO</t>
+          <t xml:space="preserve"> HILMAN JAYA</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
@@ -3554,34 +3286,20 @@
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>Provision Man</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="I67" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>AF</t>
-        </is>
-      </c>
+          <t>Expedition Program Coordinator</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H67" s="2" t="inlineStr"/>
+      <c r="I67" s="2" t="inlineStr"/>
+      <c r="J67" s="2" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3589,12 +3307,12 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>SAMSON</t>
+          <t>JEREMY</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PAUL ALDRIN </t>
+          <t>MARSOLAIS</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
@@ -3604,34 +3322,20 @@
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Canadian</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>Galley Utility</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="H68" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="I68" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>AG</t>
-        </is>
-      </c>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H68" s="2" t="inlineStr"/>
+      <c r="I68" s="2" t="inlineStr"/>
+      <c r="J68" s="2" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3639,12 +3343,12 @@
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>SAMSON</t>
+          <t>ZACHARY</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PAUL ALDRIN </t>
+          <t>COLLINS</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
@@ -3654,34 +3358,20 @@
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Canadian</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>Galley Utility</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>AG</t>
-        </is>
-      </c>
+          <t>FO</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H69" s="2" t="inlineStr"/>
+      <c r="I69" s="2" t="inlineStr"/>
+      <c r="J69" s="2" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3689,12 +3379,12 @@
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>VALENCIA</t>
+          <t>RYAN</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALFIE TRISTAN</t>
+          <t>WIENS</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
@@ -3704,34 +3394,20 @@
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Canadian</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>Pastry Chef</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>AH</t>
-        </is>
-      </c>
+          <t>FO</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr"/>
+      <c r="J70" s="2" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3739,12 +3415,12 @@
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>VALENCIA</t>
+          <t>AYDEN</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALFIE TRISTAN</t>
+          <t>GREEN</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
@@ -3754,34 +3430,20 @@
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Canadian</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>Pastry Chef</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-      <c r="H71" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="I71" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>AH</t>
-        </is>
-      </c>
+          <t>FO</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr"/>
+      <c r="J71" s="2" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3789,12 +3451,12 @@
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>VILLA</t>
+          <t>BORDEI</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORLANDO</t>
+          <t xml:space="preserve"> SILVIU DUMITRU</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
@@ -3804,12 +3466,12 @@
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>Butler</t>
+          <t>Financial Officer</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
@@ -3824,12 +3486,12 @@
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>Doble M</t>
+          <t>Single M</t>
         </is>
       </c>
       <c r="J72" s="2" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
@@ -3839,12 +3501,12 @@
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>VILLA</t>
+          <t>BORDEI</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORLANDO</t>
+          <t xml:space="preserve"> SILVIU DUMITRU</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
@@ -3854,12 +3516,12 @@
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>Butler</t>
+          <t>Financial Officer</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
@@ -3874,12 +3536,12 @@
       </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
-          <t>Doble M</t>
+          <t>Single M</t>
         </is>
       </c>
       <c r="J73" s="2" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -3889,12 +3551,12 @@
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>BORDEI</t>
+          <t>NAVARRETE</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SILVIU DUMITRU</t>
+          <t xml:space="preserve"> RUEL</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
@@ -3904,12 +3566,12 @@
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>Financial Officer</t>
+          <t>Fitter</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
@@ -3924,12 +3586,12 @@
       </c>
       <c r="I74" s="2" t="inlineStr">
         <is>
-          <t>Single M</t>
+          <t>Doble M</t>
         </is>
       </c>
       <c r="J74" s="2" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -3939,12 +3601,12 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>BORDEI</t>
+          <t>NAVARRETE</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SILVIU DUMITRU</t>
+          <t xml:space="preserve"> RUEL</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
@@ -3954,12 +3616,12 @@
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>Financial Officer</t>
+          <t>Fitter</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
@@ -3974,12 +3636,12 @@
       </c>
       <c r="I75" s="2" t="inlineStr">
         <is>
-          <t>Single M</t>
+          <t>Doble M</t>
         </is>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>AB</t>
         </is>
       </c>
     </row>
@@ -3989,12 +3651,12 @@
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>BENTHOTA DEVAGE</t>
+          <t>SAMSON</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> UDARA MADUSAKA</t>
+          <t xml:space="preserve"> PAUL ALDRIN </t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
@@ -4004,12 +3666,12 @@
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>Butler</t>
+          <t>Galley Utility</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
@@ -4029,7 +3691,7 @@
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>AB</t>
         </is>
       </c>
     </row>
@@ -4039,12 +3701,12 @@
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>BENTHOTA DEVAGE</t>
+          <t>VELANKOVIL RAJU</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> UDARA MADUSAKA</t>
+          <t xml:space="preserve"> RENJITH MON</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
@@ -4054,12 +3716,12 @@
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>Butler</t>
+          <t>Galley Utility</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
@@ -4069,19 +3731,11 @@
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="I77" s="2" t="inlineStr">
-        <is>
-          <t>Doble M</t>
-        </is>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="inlineStr"/>
+      <c r="J77" s="2" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4089,12 +3743,12 @@
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>CHARLES</t>
+          <t>VELANKOVIL RAJU</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>CHAMPOUX</t>
+          <t xml:space="preserve"> RENJITH MON</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
@@ -4104,30 +3758,34 @@
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Canadian</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>Captain</t>
+          <t>Galley Utility</t>
         </is>
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J78" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4135,12 +3793,12 @@
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>ZACHARY</t>
+          <t>SAMSON</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>COLLINS</t>
+          <t xml:space="preserve"> PAUL ALDRIN </t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
@@ -4150,30 +3808,34 @@
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Canadian</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>FO</t>
+          <t>Galley Utility</t>
         </is>
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J79" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4181,12 +3843,12 @@
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>MIREILLE</t>
+          <t>ALLAN</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>PAQUETTE</t>
+          <t xml:space="preserve"> GERALDINE TBC</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
@@ -4196,29 +3858,19 @@
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Canadian</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>Enginner</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="inlineStr">
-        <is>
-          <t>Sin fecha</t>
-        </is>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Sin fecha</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="inlineStr">
-        <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
+          <t>Guest Relations Manager</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H80" s="2" t="inlineStr"/>
+      <c r="I80" s="2" t="inlineStr"/>
       <c r="J80" s="2" t="inlineStr"/>
     </row>
     <row r="81">
@@ -4227,12 +3879,12 @@
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>JEREMY</t>
+          <t>HULLANA</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>MARSOLAIS</t>
+          <t xml:space="preserve"> RAYMUND GARRIDO</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
@@ -4242,30 +3894,34 @@
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Canadian</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>FA</t>
+          <t>IT/Communications Officer</t>
         </is>
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J81" s="2" t="inlineStr"/>
+          <t>Single M</t>
+        </is>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4273,12 +3929,12 @@
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>STEPHEN</t>
+          <t>HULLANA</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>KAIZER</t>
+          <t xml:space="preserve"> RAYMUND GARRIDO</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
@@ -4288,30 +3944,34 @@
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Canadian</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>Captain</t>
+          <t>IT/Communications Officer</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J82" s="2" t="inlineStr"/>
+          <t>Single M</t>
+        </is>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>AE</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4319,12 +3979,12 @@
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>BARNABA</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>WIENS</t>
+          <t xml:space="preserve"> COSIMO</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
@@ -4334,29 +3994,19 @@
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Canadian</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>FO</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="inlineStr">
-        <is>
-          <t>Sin fecha</t>
-        </is>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>Sin fecha</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="inlineStr">
-        <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H83" s="2" t="inlineStr"/>
+      <c r="I83" s="2" t="inlineStr"/>
       <c r="J83" s="2" t="inlineStr"/>
     </row>
     <row r="84">
@@ -4365,45 +4015,49 @@
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>STEPHEN</t>
+          <t>NUNEZ</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>WHEATCROFT</t>
+          <t xml:space="preserve"> SHELLA GADUGDUG</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Canadian</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>Enginner</t>
+          <t>Junior Nurse</t>
         </is>
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J84" s="2" t="inlineStr"/>
+          <t>Doble F</t>
+        </is>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>AF</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4411,45 +4065,49 @@
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>AYDEN</t>
+          <t>NUNEZ</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>GREEN</t>
+          <t xml:space="preserve"> SHELLA GADUGDUG</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>Canadian</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>FO</t>
+          <t>Junior Nurse</t>
         </is>
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J85" s="2" t="inlineStr"/>
+          <t>Doble F</t>
+        </is>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>AF</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4480,21 +4138,11 @@
           <t>Kayak Guide</t>
         </is>
       </c>
-      <c r="G86" s="2" t="inlineStr">
-        <is>
-          <t>Sin fecha</t>
-        </is>
-      </c>
-      <c r="H86" s="2" t="inlineStr">
-        <is>
-          <t>Sin fecha</t>
-        </is>
-      </c>
-      <c r="I86" s="2" t="inlineStr">
-        <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
+      <c r="G86" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H86" s="2" t="inlineStr"/>
+      <c r="I86" s="2" t="inlineStr"/>
       <c r="J86" s="2" t="inlineStr"/>
     </row>
     <row r="87">
@@ -4503,12 +4151,12 @@
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>CHEN</t>
+          <t>ARKANI</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QI</t>
+          <t xml:space="preserve"> ADIN</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
@@ -4518,29 +4166,19 @@
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr">
         <is>
-          <t>Expedition Field Staff</t>
-        </is>
-      </c>
-      <c r="G87" s="2" t="inlineStr">
-        <is>
-          <t>Sin fecha</t>
-        </is>
-      </c>
-      <c r="H87" s="2" t="inlineStr">
-        <is>
-          <t>Sin fecha</t>
-        </is>
-      </c>
-      <c r="I87" s="2" t="inlineStr">
-        <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
+          <t>Laundry Man</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H87" s="2" t="inlineStr"/>
+      <c r="I87" s="2" t="inlineStr"/>
       <c r="J87" s="2" t="inlineStr"/>
     </row>
     <row r="88">
@@ -4549,12 +4187,12 @@
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>NAULAK</t>
+          <t>MAGDADARO</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GINKHUALLIAN</t>
+          <t xml:space="preserve"> RAFFY</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
@@ -4564,30 +4202,34 @@
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>Deck Steward</t>
+          <t>Oiler</t>
         </is>
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J88" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>AG</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4595,12 +4237,12 @@
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>ARKANI</t>
+          <t>MAGDADARO</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ADIN</t>
+          <t xml:space="preserve"> RAFFY</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
@@ -4610,30 +4252,34 @@
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>Laundry Man</t>
+          <t>Oiler</t>
         </is>
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J89" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>AG</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4641,12 +4287,12 @@
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>PERMANA</t>
+          <t>DELA CRUZ</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HILMAN JAYA</t>
+          <t xml:space="preserve"> LITO</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
@@ -4656,29 +4302,19 @@
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>Expedition Program Coordinator</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="inlineStr">
-        <is>
-          <t>Sin fecha</t>
-        </is>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>Sin fecha</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="inlineStr">
-        <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
+          <t>Ordinary Seaman</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H90" s="2" t="inlineStr"/>
+      <c r="I90" s="2" t="inlineStr"/>
       <c r="J90" s="2" t="inlineStr"/>
     </row>
     <row r="91">
@@ -4687,12 +4323,12 @@
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>BARNABA</t>
+          <t>VALENCIA</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> COSIMO</t>
+          <t xml:space="preserve"> ALFIE TRISTAN</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
@@ -4702,30 +4338,34 @@
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>Junior Engineer</t>
+          <t>Pastry Chef</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J91" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J91" s="2" t="inlineStr">
+        <is>
+          <t>AH</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -4733,12 +4373,12 @@
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>GRANT</t>
+          <t>VALENCIA</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HARRY KEITH</t>
+          <t xml:space="preserve"> ALFIE TRISTAN</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
@@ -4748,30 +4388,34 @@
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>Expedition Field Staff</t>
+          <t>Pastry Chef</t>
         </is>
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J92" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>AH</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -4779,12 +4423,12 @@
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>ALDAY</t>
+          <t>ORFANO</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JEROME CARANDANG</t>
+          <t xml:space="preserve"> NICANOR PANERGO</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
@@ -4799,25 +4443,29 @@
       </c>
       <c r="F93" s="2" t="inlineStr">
         <is>
-          <t>Able Seaman</t>
+          <t>Provision Man</t>
         </is>
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="I93" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J93" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J93" s="2" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -4825,12 +4473,12 @@
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>DELA CRUZ</t>
+          <t>ORFANO</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LITO</t>
+          <t xml:space="preserve"> NICANOR PANERGO</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
@@ -4845,25 +4493,29 @@
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>Ordinary Seaman</t>
+          <t>Provision Man</t>
         </is>
       </c>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I94" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J94" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -4871,12 +4523,12 @@
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>FELISILDA</t>
+          <t>MURTAKOV</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DEMETRIO PELIGRO</t>
+          <t xml:space="preserve"> DMYTRO</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
@@ -4886,29 +4538,19 @@
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>Able Seaman</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="inlineStr">
-        <is>
-          <t>Sin fecha</t>
-        </is>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Sin fecha</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="inlineStr">
-        <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
+          <t>Safety Officer</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H95" s="2" t="inlineStr"/>
+      <c r="I95" s="2" t="inlineStr"/>
       <c r="J95" s="2" t="inlineStr"/>
     </row>
     <row r="96">
@@ -4917,44 +4559,34 @@
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>ISIDORO</t>
+          <t>Vivi Kristina</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ROVAN</t>
+          <t>Bolin</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Finnish</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>Bar Waiter/Waitress</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="inlineStr">
-        <is>
-          <t>Sin fecha</t>
-        </is>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>Sin fecha</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="inlineStr">
-        <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
+          <t>Science &amp; Education CoordinatorNIS</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H96" s="2" t="inlineStr"/>
+      <c r="I96" s="2" t="inlineStr"/>
       <c r="J96" s="2" t="inlineStr"/>
     </row>
     <row r="97">
@@ -4963,45 +4595,49 @@
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>NACARIO</t>
+          <t>BOGA</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESTER</t>
+          <t xml:space="preserve"> FREADY HOMI</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>Suite Attendant</t>
+          <t>Security Guard</t>
         </is>
       </c>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J97" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J97" s="2" t="inlineStr">
+        <is>
+          <t>AJ</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5009,12 +4645,12 @@
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>BREDENKAMP</t>
+          <t>BOGA</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NICHOLAS</t>
+          <t xml:space="preserve"> FREADY HOMI</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
@@ -5024,30 +4660,34 @@
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>Expedition Field Staff</t>
+          <t>Security Guard</t>
         </is>
       </c>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J98" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J98" s="2" t="inlineStr">
+        <is>
+          <t>AJ</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5055,44 +4695,40 @@
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>OOSTHUYSE</t>
+          <t>AHMED</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JESSICA KAY</t>
+          <t xml:space="preserve"> ALTAF</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>Expedition Field Staff</t>
+          <t>Senior Security Guard</t>
         </is>
       </c>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
-        </is>
-      </c>
-      <c r="I99" s="2" t="inlineStr">
-        <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="inlineStr"/>
       <c r="J99" s="2" t="inlineStr"/>
     </row>
     <row r="100">
@@ -5101,12 +4737,12 @@
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>THORP</t>
+          <t>AHMED</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MATTHEW</t>
+          <t xml:space="preserve"> ALTAF</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
@@ -5116,30 +4752,34 @@
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>Expedition Field Staff</t>
+          <t>Senior Security Guard</t>
         </is>
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J100" s="2" t="inlineStr"/>
+          <t>Single M</t>
+        </is>
+      </c>
+      <c r="J100" s="2" t="inlineStr">
+        <is>
+          <t>AK</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5147,12 +4787,12 @@
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>KUMARA</t>
+          <t>BISHT</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATHTHANAYAKA SANATH</t>
+          <t xml:space="preserve"> LALIT</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
@@ -5162,29 +4802,25 @@
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>Butler</t>
+          <t>Service Assistant</t>
         </is>
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
-        </is>
-      </c>
-      <c r="I101" s="2" t="inlineStr">
-        <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="inlineStr"/>
       <c r="J101" s="2" t="inlineStr"/>
     </row>
     <row r="102">
@@ -5193,45 +4829,49 @@
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>LUNDSTROEM</t>
+          <t>BISHT</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EVA KARIN TERESIA</t>
+          <t xml:space="preserve"> LALIT</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>Expedition Field Staff</t>
+          <t>Service Assistant</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I102" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J102" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5239,12 +4879,12 @@
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>DOMANIN</t>
+          <t>DIAZ CASTILLO</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ANDRIY</t>
+          <t xml:space="preserve"> MANUEL</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
@@ -5254,30 +4894,34 @@
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>Captain</t>
+          <t>Sommelier</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="I103" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J103" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J103" s="2" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5285,12 +4929,12 @@
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>MURTAKOV</t>
+          <t>DIAZ CASTILLO</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DMYTRO</t>
+          <t xml:space="preserve"> MANUEL</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
@@ -5300,30 +4944,34 @@
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>Safety Officer</t>
+          <t>Sommelier</t>
         </is>
       </c>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J104" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5331,12 +4979,12 @@
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>SULZHUK</t>
+          <t>AJIMON</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IVAN</t>
+          <t xml:space="preserve"> ANANTHAKRISHNAN</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
@@ -5346,29 +4994,25 @@
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F105" s="2" t="inlineStr">
         <is>
-          <t>2nd Engineer</t>
+          <t>Suite Attendant</t>
         </is>
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
-        </is>
-      </c>
-      <c r="I105" s="2" t="inlineStr">
-        <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="inlineStr"/>
       <c r="J105" s="2" t="inlineStr"/>
     </row>
     <row r="106">
@@ -5377,45 +5021,49 @@
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>ALLAN</t>
+          <t>AJIMON</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GERALDINE TBC</t>
+          <t xml:space="preserve"> ANANTHAKRISHNAN</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>Guest Relations Manager</t>
+          <t>Suite Attendant</t>
         </is>
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J106" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5423,44 +5071,40 @@
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>MELLUISH</t>
+          <t>NORONHA</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VICTORIA LOUISE</t>
+          <t xml:space="preserve"> BONIFACIO JOAO</t>
         </is>
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>Expedition Field Staff</t>
+          <t>Suite Attendant</t>
         </is>
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
-        </is>
-      </c>
-      <c r="I107" s="2" t="inlineStr">
-        <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="inlineStr"/>
       <c r="J107" s="2" t="inlineStr"/>
     </row>
     <row r="108">
@@ -5469,12 +5113,12 @@
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>KWIDINI</t>
+          <t>NORONHA</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NKULULEKO</t>
+          <t xml:space="preserve"> BONIFACIO JOAO</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
@@ -5484,30 +5128,34 @@
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>Expedition Field Staff</t>
+          <t>Suite Attendant</t>
         </is>
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J108" s="2" t="inlineStr"/>
+          <t>Doble M</t>
+        </is>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5515,12 +5163,12 @@
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>Feng</t>
+          <t>SAHA</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>lday</t>
+          <t xml:space="preserve"> SOUVIK</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
@@ -5530,29 +5178,25 @@
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>Captain</t>
+          <t>Suite Attendant</t>
         </is>
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
-        </is>
-      </c>
-      <c r="I109" s="2" t="inlineStr">
-        <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="inlineStr"/>
       <c r="J109" s="2" t="inlineStr"/>
     </row>
     <row r="110">
@@ -5561,12 +5205,12 @@
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>Emil Maltha</t>
+          <t>SAHA</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Zhou</t>
+          <t xml:space="preserve"> SOUVIK</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
@@ -5576,32 +5220,32 @@
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>Captain</t>
+          <t>Suite Attendant</t>
         </is>
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
         <is>
-          <t>Single M</t>
+          <t>Doble M</t>
         </is>
       </c>
       <c r="J110" s="2" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>AN</t>
         </is>
       </c>
     </row>
@@ -5611,49 +5255,35 @@
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>Emil Maltha</t>
+          <t>NACARIO</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>Zhou</t>
+          <t xml:space="preserve"> ESTER</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>Captain</t>
-        </is>
-      </c>
-      <c r="G111" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-22</t>
-        </is>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-23</t>
-        </is>
-      </c>
-      <c r="I111" s="2" t="inlineStr">
-        <is>
-          <t>Single M</t>
-        </is>
-      </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>AN</t>
-        </is>
-      </c>
+          <t>Suite Attendant</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v/>
+      </c>
+      <c r="H111" s="2" t="inlineStr"/>
+      <c r="I111" s="2" t="inlineStr"/>
+      <c r="J111" s="2" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -5661,42 +5291,42 @@
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>Emil Maltha</t>
+          <t xml:space="preserve">KAPOMBE </t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>Zhou</t>
+          <t xml:space="preserve"> MIREILLE</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>Captain</t>
+          <t>Waiter</t>
         </is>
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="I112" s="2" t="inlineStr">
         <is>
-          <t>Single M</t>
+          <t>Doble F</t>
         </is>
       </c>
       <c r="J112" s="2" t="inlineStr">
@@ -5711,12 +5341,12 @@
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>Vivi Kristina</t>
+          <t xml:space="preserve">KAPOMBE </t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>Bolin</t>
+          <t xml:space="preserve"> MIREILLE</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr">
@@ -5726,30 +5356,34 @@
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>Finnish</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="F113" s="2" t="inlineStr">
         <is>
-          <t>Science &amp; Education CoordinatorNIS</t>
+          <t>Waiter</t>
         </is>
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="I113" s="2" t="inlineStr">
         <is>
-          <t>Sin habitación</t>
-        </is>
-      </c>
-      <c r="J113" s="2" t="inlineStr"/>
+          <t>Doble F</t>
+        </is>
+      </c>
+      <c r="J113" s="2" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
